--- a/UZ/moduls/1С.xlsx
+++ b/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEBAC91-CCD6-43E5-806A-87788D3ADEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F91785F-B092-42E7-A8F2-21C61EA4DC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,7 +1104,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1541,7 @@
         <v>103</v>
       </c>
       <c r="D17" s="4">
-        <v>4301051632</v>
+        <v>4301051656</v>
       </c>
       <c r="E17" s="3">
         <v>4680115880573</v>
@@ -1566,7 +1566,7 @@
         <v>99</v>
       </c>
       <c r="D18" s="4">
-        <v>4301051630</v>
+        <v>4301051666</v>
       </c>
       <c r="E18" s="3">
         <v>4680115880092</v>
@@ -1591,7 +1591,7 @@
         <v>101</v>
       </c>
       <c r="D19" s="4">
-        <v>4301051631</v>
+        <v>4301051668</v>
       </c>
       <c r="E19" s="3">
         <v>4680115880221</v>
@@ -1816,7 +1816,7 @@
         <v>39</v>
       </c>
       <c r="D28" s="4">
-        <v>4301051115</v>
+        <v>4301051819</v>
       </c>
       <c r="E28" s="3">
         <v>4607091387964</v>
@@ -2141,7 +2141,7 @@
         <v>193</v>
       </c>
       <c r="D41" s="4">
-        <v>4301051634</v>
+        <v>4301051660</v>
       </c>
       <c r="E41" s="3">
         <v>4607091384253</v>

--- a/UZ/moduls/1С.xlsx
+++ b/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F91785F-B092-42E7-A8F2-21C61EA4DC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65288574-1959-4952-A34B-A752E1C00340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,7 +1104,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UZ/moduls/1С.xlsx
+++ b/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65288574-1959-4952-A34B-A752E1C00340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A951C1C1-E23A-47BE-B878-BEEB01F638F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,7 +1104,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
